--- a/ppc-timeshare_text.xlsx
+++ b/ppc-timeshare_text.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="460" windowWidth="20280" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>số điện thoại không đúng</t>
   </si>
@@ -38,19 +38,107 @@
     <t>mật khẩu quá ngắn</t>
   </si>
   <si>
-    <t>xác nhận mận khẩu sai</t>
-  </si>
-  <si>
     <t>email đã tồn tại</t>
+  </si>
+  <si>
+    <t>xác nhận mật khẩu không trùng khớp</t>
+  </si>
+  <si>
+    <t>đăng nhập không thành công</t>
+  </si>
+  <si>
+    <t>đăng nhập thành công</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập tiêu đề</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập nội dung tối thiểu 50 ký tự</t>
+  </si>
+  <si>
+    <t>gửi yêu cầu thành công/ thất bại</t>
+  </si>
+  <si>
+    <t>cập nhật thành công/ thất bại</t>
+  </si>
+  <si>
+    <t>Incorrect phone number</t>
+  </si>
+  <si>
+    <t>wrong email address</t>
+  </si>
+  <si>
+    <t>Password is too short</t>
+  </si>
+  <si>
+    <t>password is invalid</t>
+  </si>
+  <si>
+    <t>Log in successfully</t>
+  </si>
+  <si>
+    <t>Please input the title</t>
+  </si>
+  <si>
+    <t>Please input at least 50 letters</t>
+  </si>
+  <si>
+    <t>Updated successfully</t>
+  </si>
+  <si>
+    <t>Send request successfully/failed</t>
+  </si>
+  <si>
+    <t>Loged in failed</t>
+  </si>
+  <si>
+    <t>existed email</t>
+  </si>
+  <si>
+    <t>Please try again</t>
+  </si>
+  <si>
+    <t>Vui lòng thử lại</t>
+  </si>
+  <si>
+    <t>Thông tin của bạn đã được cập nhật</t>
+  </si>
+  <si>
+    <t>please inpur your address</t>
+  </si>
+  <si>
+    <t>please select your gender</t>
+  </si>
+  <si>
+    <t>username is not correct</t>
+  </si>
+  <si>
+    <t>Your information is updated</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập địa chỉ</t>
+  </si>
+  <si>
+    <t>Vui lòng chọn giới tính.</t>
+  </si>
+  <si>
+    <t>Tên đăng nhập không đúng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -77,8 +165,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,40 +445,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
